--- a/figures/result5.xlsx
+++ b/figures/result5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\sakakibara\monte-carlo-ray-tracer_approx\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016DF370-CD2D-47A6-BC3F-7DD9D93C3252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08A6C30-7315-493F-BC59-2C0478B449F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="105" windowWidth="11625" windowHeight="15375" firstSheet="11" activeTab="15" xr2:uid="{31F97659-7F59-47E3-B467-703D677997C4}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="4" activeTab="5" xr2:uid="{31F97659-7F59-47E3-B467-703D677997C4}"/>
   </bookViews>
   <sheets>
     <sheet name="【非IS】Sheet0" sheetId="7" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="Sheet8" sheetId="25" r:id="rId14"/>
     <sheet name="Sheet9" sheetId="26" r:id="rId15"/>
     <sheet name="Sheet1" sheetId="27" r:id="rId16"/>
+    <sheet name="Sheet1 (2)" sheetId="29" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="71">
   <si>
     <t>wc, spp=16+16, prob=0.5</t>
     <phoneticPr fontId="1"/>
@@ -587,6 +588,144 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>wc, SSIM, jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>method9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>辺で隣接する4 pixelに1つでも辺があれば近似不可、平均導出時に1.0超ピクセルは1.0に切り捨て</t>
+    <rPh sb="0" eb="1">
+      <t>ヘン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リンセツ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヘン</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>キンジフカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ドウシュツ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>代表値は「リアルタイムでの隣接4 pixel平均」</t>
+    <rPh sb="0" eb="2">
+      <t>ダイヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>リンセツ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・method4, 7はブロックノイズを回避できない。</t>
+    <rPh sb="20" eb="22">
+      <t>カイヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・method9はブロックノイズを回避できるが、特にapprox. rateが多い部分において誤差が大きい。</t>
+    <rPh sb="17" eb="19">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ゴサ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誤差が大きすぎ。</t>
+    <rPh sb="0" eb="2">
+      <t>ゴサ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>method9x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>辺・角で隣接する8 pixelに1つでも辺があれば近似不可、平均導出時に1.0超ピクセルは1.0に切り捨て</t>
+    <rPh sb="0" eb="1">
+      <t>ヘン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>リンセツ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヘン</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>キンジフカ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ドウシュツ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -729,7 +868,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -779,6 +918,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
@@ -3081,6 +3226,129 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet9!$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>method9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet9!$C$43:$C$52</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.96845431857638886</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89831443504050923</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85165825737847223</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8075482855902778</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76824327256944447</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7338063331886574</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67859438295717589</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.61279866536458338</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57464988425925934</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55315963179976846</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet9!$F$43:$F$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.98654781950141801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98665485114949603</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98659579846303203</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98652478459840698</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98664433458716205</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98646086648532005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98636612204994301</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98626581099117205</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98626800226525801</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98631023094125103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7BC8-47F6-9D28-F27F542B2FFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -3665,6 +3933,129 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet9!$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>method9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet9!$C$43:$C$52</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.96845431857638886</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89831443504050923</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85165825737847223</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8075482855902778</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76824327256944447</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7338063331886574</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67859438295717589</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.61279866536458338</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57464988425925934</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55315963179976846</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet9!$G$43:$G$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>54.701582754629598</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.405266203703697</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.989375000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.494305555555499</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55.424448784722202</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.169127604166597</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59.114696180555498</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62.793360821759201</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63.480639467592503</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63.946093750000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-079C-4696-8428-19D48B5C959E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -9729,6 +10120,129 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EE0D-4234-8457-A047EBC76A0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet9!$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>method9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet9!$C$43:$C$52</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.96845431857638886</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89831443504050923</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85165825737847223</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8075482855902778</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76824327256944447</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7338063331886574</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67859438295717589</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.61279866536458338</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57464988425925934</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55315963179976846</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet9!$D$43:$D$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.98270081368245799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98279266873075599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98277501114978205</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98277400505774604</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.982925155699793</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.982716027192443</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98268756920376399</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98263131398593195</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98272455922546298</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98274181155475104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ED11-4517-959F-BF4A419E2307}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10312,6 +10826,129 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2849-45CB-A973-C17AD045718A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet9!$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>method9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet9!$C$43:$C$52</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.96845431857638886</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89831443504050923</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85165825737847223</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8075482855902778</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76824327256944447</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7338063331886574</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67859438295717589</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.61279866536458338</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57464988425925934</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55315963179976846</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet9!$E$43:$E$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>70.346698495370305</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.121843171296206</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.533457754629595</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.754629629629605</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.546187789351805</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72.365403645833297</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.094771412037005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77.651630497685105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>77.960706018518493</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>78.550332754629594</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-210B-455B-BFD8-2FAE5EA22249}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -17414,11 +18051,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD06C855-950B-44CE-8E3A-07E9B592E6F2}">
   <dimension ref="A1:U259"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="U127" sqref="U127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
     <col min="1" max="1" width="16.75" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="8" width="9" style="7"/>
@@ -17442,14 +18079,14 @@
       <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21" t="s">
+      <c r="S1" s="23"/>
+      <c r="T1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="21"/>
+      <c r="U1" s="23"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="7" t="s">
@@ -22849,10 +23486,10 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H5"/>
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
     <col min="1" max="1" width="18.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
@@ -22871,30 +23508,30 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22" t="s">
+      <c r="F4" s="24"/>
+      <c r="G4" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22" t="s">
+      <c r="H4" s="24"/>
+      <c r="I4" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="22"/>
+      <c r="J4" s="24"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
@@ -23521,13 +24158,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8287531-8E71-4D7E-A003-AB2C8C110F24}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="19" t="s">
@@ -23548,6 +24185,16 @@
       </c>
       <c r="B3" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -23560,9 +24207,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F598E66-24FC-4417-BBB1-47ED348D43A3}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
@@ -23587,13 +24236,13 @@
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
@@ -24198,7 +24847,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
@@ -24223,13 +24872,13 @@
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
@@ -24750,7 +25399,7 @@
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
     <col min="1" max="1" width="17.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
@@ -24759,14 +25408,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="22"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
@@ -25057,16 +25706,17 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA1694-F670-4BE0-A01F-7368306F0412}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C4"/>
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -25078,14 +25728,14 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="22"/>
+      <c r="G2" s="24"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8">
@@ -25439,14 +26089,14 @@
       <c r="A20" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22" t="s">
+      <c r="E20" s="24"/>
+      <c r="F20" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="22"/>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
@@ -25807,12 +26457,305 @@
         <v>55.239503761573999</v>
       </c>
     </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="24"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>348870</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" ref="C43:C52" si="2">1-B43/(720*960*16)</f>
+        <v>0.96845431857638886</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.98270081368245799</v>
+      </c>
+      <c r="E43" s="3">
+        <v>70.346698495370305</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0.98654781950141801</v>
+      </c>
+      <c r="G43" s="3">
+        <v>54.701582754629598</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44">
+        <v>1124561</v>
+      </c>
+      <c r="C44" s="1">
+        <f t="shared" si="2"/>
+        <v>0.89831443504050923</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.98279266873075599</v>
+      </c>
+      <c r="E44" s="3">
+        <v>70.121843171296206</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0.98665485114949603</v>
+      </c>
+      <c r="G44" s="3">
+        <v>54.405266203703697</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>6</v>
+      </c>
+      <c r="B45">
+        <v>1640541</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" si="2"/>
+        <v>0.85165825737847223</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.98277501114978205</v>
+      </c>
+      <c r="E45" s="3">
+        <v>70.533457754629595</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0.98659579846303203</v>
+      </c>
+      <c r="G45" s="3">
+        <v>54.989375000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>8</v>
+      </c>
+      <c r="B46">
+        <v>2128362</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" si="2"/>
+        <v>0.8075482855902778</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.98277400505774604</v>
+      </c>
+      <c r="E46" s="3">
+        <v>70.754629629629605</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0.98652478459840698</v>
+      </c>
+      <c r="G46" s="3">
+        <v>55.494305555555499</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>10</v>
+      </c>
+      <c r="B47">
+        <v>2563044</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" si="2"/>
+        <v>0.76824327256944447</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.982925155699793</v>
+      </c>
+      <c r="E47" s="3">
+        <v>70.546187789351805</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0.98664433458716205</v>
+      </c>
+      <c r="G47" s="3">
+        <v>55.424448784722202</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>12</v>
+      </c>
+      <c r="B48">
+        <v>2943889</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" si="2"/>
+        <v>0.7338063331886574</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.982716027192443</v>
+      </c>
+      <c r="E48" s="3">
+        <v>72.365403645833297</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0.98646086648532005</v>
+      </c>
+      <c r="G48" s="3">
+        <v>57.169127604166597</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>16</v>
+      </c>
+      <c r="B49">
+        <v>3554489</v>
+      </c>
+      <c r="C49" s="1">
+        <f t="shared" si="2"/>
+        <v>0.67859438295717589</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0.98268756920376399</v>
+      </c>
+      <c r="E49" s="3">
+        <v>74.094771412037005</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0.98636612204994301</v>
+      </c>
+      <c r="G49" s="3">
+        <v>59.114696180555498</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>24</v>
+      </c>
+      <c r="B50">
+        <v>4282137</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" si="2"/>
+        <v>0.61279866536458338</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.98263131398593195</v>
+      </c>
+      <c r="E50" s="3">
+        <v>77.651630497685105</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0.98626581099117205</v>
+      </c>
+      <c r="G50" s="3">
+        <v>62.793360821759201</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>32</v>
+      </c>
+      <c r="B51">
+        <v>4704032</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" si="2"/>
+        <v>0.57464988425925934</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.98272455922546298</v>
+      </c>
+      <c r="E51" s="3">
+        <v>77.960706018518493</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0.98626800226525801</v>
+      </c>
+      <c r="G51" s="3">
+        <v>63.480639467592503</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>40</v>
+      </c>
+      <c r="B52">
+        <v>4941697</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" si="2"/>
+        <v>0.55315963179976846</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0.98274181155475104</v>
+      </c>
+      <c r="E52" s="3">
+        <v>78.550332754629594</v>
+      </c>
+      <c r="F52" s="2">
+        <v>0.98631023094125103</v>
+      </c>
+      <c r="G52" s="3">
+        <v>63.946093750000003</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25822,13 +26765,13 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6363911-3AB6-45FD-AE95-71AA1E01612D}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
     <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
@@ -25843,14 +26786,14 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="22"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
@@ -26031,7 +26974,7 @@
         <v>0.59443531177662035</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>160</v>
       </c>
@@ -26043,7 +26986,7 @@
         <v>0.58441831235532415</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>192</v>
       </c>
@@ -26055,7 +26998,7 @@
         <v>0.57258255570023153</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>224</v>
       </c>
@@ -26067,7 +27010,7 @@
         <v>0.56741907190393515</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>256</v>
       </c>
@@ -26077,22 +27020,550 @@
       <c r="C20" s="1">
         <f t="shared" si="0"/>
         <v>0.5627737087673611</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="D29">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="D30">
-        <v>296</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0506C7E9-1C4A-49B6-993E-CFFC44986C0C}">
+  <dimension ref="A1:G39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <cols>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>631635</v>
+      </c>
+      <c r="C6" s="1">
+        <f>1-B6/(1000*1000*16)</f>
+        <v>0.96052281250000004</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0.967685674966281</v>
+      </c>
+      <c r="E6" s="21">
+        <v>78.330000999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>1797703</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" ref="C7:C18" si="0">1-B7/(1000*1000*16)</f>
+        <v>0.88764356249999998</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0.96709293295535503</v>
+      </c>
+      <c r="E7" s="21">
+        <v>89.076988999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>2419913</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.84875543749999993</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0.96707390989350805</v>
+      </c>
+      <c r="E8" s="21">
+        <v>89.753322999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>3032967</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.81043956250000004</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0.96707040329704996</v>
+      </c>
+      <c r="E9" s="21">
+        <v>91.113484999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>3614188</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.77411324999999997</v>
+      </c>
+      <c r="D10" s="21">
+        <v>0.967052611830303</v>
+      </c>
+      <c r="E10" s="21">
+        <v>90.679068999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>4134781</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.74157618749999998</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0.96705278621260604</v>
+      </c>
+      <c r="E11" s="21">
+        <v>91.990193000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>28</v>
+      </c>
+      <c r="B12">
+        <v>4578400</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.71384999999999998</v>
+      </c>
+      <c r="D12" s="21">
+        <v>0.96720500279889499</v>
+      </c>
+      <c r="E12" s="21">
+        <v>91.222821999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>4990737</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.68807893750000004</v>
+      </c>
+      <c r="D13" s="21">
+        <v>0.96706738545069704</v>
+      </c>
+      <c r="E13" s="21">
+        <v>92.496064000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>5647528</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.64702949999999992</v>
+      </c>
+      <c r="D14" s="21">
+        <v>0.96720310968694601</v>
+      </c>
+      <c r="E14" s="21">
+        <v>93.063042999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>48</v>
+      </c>
+      <c r="B15">
+        <v>6138524</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.61634224999999998</v>
+      </c>
+      <c r="D15" s="21">
+        <v>0.967126707571489</v>
+      </c>
+      <c r="E15" s="21">
+        <v>93.533705999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>56</v>
+      </c>
+      <c r="B16">
+        <v>6505705</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.59339343750000006</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>64</v>
+      </c>
+      <c r="B17">
+        <v>6776070</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.57649562499999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>80</v>
+      </c>
+      <c r="B18">
+        <v>7162056</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.55237150000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="24"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>174499</v>
+      </c>
+      <c r="C26" s="1">
+        <f>1-B26/(1000*1000*16)</f>
+        <v>0.98909381249999995</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>880608</v>
+      </c>
+      <c r="C27" s="1">
+        <f>1-B27/(1000*1000*16)</f>
+        <v>0.94496199999999997</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>16</v>
+      </c>
+      <c r="B28">
+        <v>1895496</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" ref="C28:C38" si="1">1-B28/(1000*1000*16)</f>
+        <v>0.88153150000000002</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>24</v>
+      </c>
+      <c r="B29">
+        <v>2980884</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="1"/>
+        <v>0.81369475000000002</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>3969170</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="1"/>
+        <v>0.75192687499999999</v>
+      </c>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>40</v>
+      </c>
+      <c r="B31">
+        <v>4761484</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="1"/>
+        <v>0.70240725000000004</v>
+      </c>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>48</v>
+      </c>
+      <c r="B32">
+        <v>5405355</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="1"/>
+        <v>0.66216531249999999</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>56</v>
+      </c>
+      <c r="B33">
+        <v>5889216</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="1"/>
+        <v>0.63192399999999993</v>
+      </c>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>64</v>
+      </c>
+      <c r="B34">
+        <v>6279796</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="1"/>
+        <v>0.60751274999999993</v>
+      </c>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>72</v>
+      </c>
+      <c r="B35">
+        <v>6578058</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" si="1"/>
+        <v>0.58887137499999997</v>
+      </c>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>80</v>
+      </c>
+      <c r="B36">
+        <v>6807835</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" si="1"/>
+        <v>0.57451031249999995</v>
+      </c>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>88</v>
+      </c>
+      <c r="B37">
+        <v>6977744</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="1"/>
+        <v>0.56389099999999992</v>
+      </c>
+      <c r="D37" s="22"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>96</v>
+      </c>
+      <c r="B38">
+        <v>7129896</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="1"/>
+        <v>0.55438150000000008</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="C39" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26104,10 +27575,10 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
     <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
@@ -26133,14 +27604,14 @@
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22" t="s">
+      <c r="E4" s="24"/>
+      <c r="F4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="22"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8">
@@ -26667,7 +28138,7 @@
       <selection activeCell="F5" sqref="F5:F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
     <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
@@ -26687,14 +28158,14 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22" t="s">
+      <c r="E3" s="24"/>
+      <c r="F3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="22"/>
+      <c r="G3" s="24"/>
       <c r="H3" s="6"/>
       <c r="I3" t="s">
         <v>38</v>
@@ -27191,14 +28662,14 @@
       <c r="A27" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22" t="s">
+      <c r="E27" s="24"/>
+      <c r="F27" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="22"/>
+      <c r="G27" s="24"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
@@ -27634,7 +29105,7 @@
       <selection activeCell="F6" sqref="F6:F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
     <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
@@ -27659,14 +29130,14 @@
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22" t="s">
+      <c r="E4" s="24"/>
+      <c r="F4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="22"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="6"/>
       <c r="I4" t="s">
         <v>38</v>
@@ -28149,10 +29620,10 @@
       <c r="A31" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="22"/>
+      <c r="E31" s="24"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
@@ -28268,7 +29739,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
@@ -28293,14 +29764,14 @@
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22" t="s">
+      <c r="E4" s="24"/>
+      <c r="F4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="22"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -28747,11 +30218,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC91EF9-5A2B-4E8B-B14F-BA82F77DFE6C}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
@@ -28776,14 +30247,14 @@
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22" t="s">
+      <c r="E4" s="24"/>
+      <c r="F4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="22"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -29158,11 +30629,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C00F18-645D-4C88-9DCD-0E2F220218DE}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="E6" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
     <col min="1" max="1" width="18.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
@@ -29185,26 +30656,26 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22" t="s">
+      <c r="F4" s="24"/>
+      <c r="G4" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22" t="s">
+      <c r="H4" s="24"/>
+      <c r="I4" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="22"/>
+      <c r="J4" s="24"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
@@ -29833,11 +31304,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3FC7A4-D7CA-4D5B-AB0C-26A064F79098}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
     <col min="1" max="1" width="18.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
@@ -29860,26 +31331,26 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22" t="s">
+      <c r="F4" s="24"/>
+      <c r="G4" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22" t="s">
+      <c r="H4" s="24"/>
+      <c r="I4" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="22"/>
+      <c r="J4" s="24"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
@@ -30505,11 +31976,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75EA4B84-E6FE-4764-A47B-3C0B37F09B33}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6:J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
     <col min="1" max="1" width="18.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
@@ -30532,26 +32003,26 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22" t="s">
+      <c r="F4" s="24"/>
+      <c r="G4" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22" t="s">
+      <c r="H4" s="24"/>
+      <c r="I4" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="22"/>
+      <c r="J4" s="24"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">

--- a/figures/result5.xlsx
+++ b/figures/result5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\sakakibara\monte-carlo-ray-tracer_approx\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08A6C30-7315-493F-BC59-2C0478B449F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D258F99-1382-4280-9E71-D51049FAF36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="4" activeTab="5" xr2:uid="{31F97659-7F59-47E3-B467-703D677997C4}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="12" activeTab="18" xr2:uid="{31F97659-7F59-47E3-B467-703D677997C4}"/>
   </bookViews>
   <sheets>
     <sheet name="【非IS】Sheet0" sheetId="7" r:id="rId1"/>
@@ -30,6 +30,8 @@
     <sheet name="Sheet9" sheetId="26" r:id="rId15"/>
     <sheet name="Sheet1" sheetId="27" r:id="rId16"/>
     <sheet name="Sheet1 (2)" sheetId="29" r:id="rId17"/>
+    <sheet name="Sheet2" sheetId="30" r:id="rId18"/>
+    <sheet name="Sheet3" sheetId="31" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="78">
   <si>
     <t>wc, spp=16+16, prob=0.5</t>
     <phoneticPr fontId="1"/>
@@ -726,6 +728,109 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>method9y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>代表値は「リアルタイムでの隣接8 pixel平均」</t>
+    <rPh sb="0" eb="2">
+      <t>ダイヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>リンセツ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>小</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RGB全て同じくらい</t>
+    <rPh sb="3" eb="4">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>RGB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>は大きい</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gは小さい</t>
+    <rPh sb="2" eb="3">
+      <t>チイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RGBG全てほぼ同じ</t>
+    <rPh sb="4" eb="5">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -735,7 +840,7 @@
     <numFmt numFmtId="176" formatCode="0.0000"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -838,6 +943,17 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -868,7 +984,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -930,6 +1046,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4276,6 +4398,1159 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tga</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$6:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9488609375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90757493749999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87095562500000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83746787499999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80643149999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.779516875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.73162068749999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6936075625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.66278581250000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.63806574999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.61858568749999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.58799887500000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.56748687499999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.54238881250000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$6:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.969724457085549</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96957708567432099</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96964955133943198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96958349610503802</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96959765644011797</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96960179316823203</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96965705117876599</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96966614355810998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.96970577874773201</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96980931022433903</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.96977899602059503</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.96984840422707397</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.96991750030076496</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.96997547772514803</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.97003114887085395</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-27AA-44D7-9298-ECDBC285C5F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>jpg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$6:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9488609375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90757493749999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87095562500000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83746787499999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80643149999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.779516875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.73162068749999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6936075625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.66278581250000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.63806574999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.61858568749999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.58799887500000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.56748687499999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.54238881250000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$6:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.97358256456845504</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97343190504403398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97349637224254204</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.973455433519678</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97342864739244095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97353113163751004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97349623481527903</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97349103729281194</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97354665957912301</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97370872648134299</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97361084881030002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.97366207359169499</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.97372198382188402</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.97377590029943895</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.97382573224334201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-27AA-44D7-9298-ECDBC285C5F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="219400448"/>
+        <c:axId val="93080960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="219400448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="93080960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="93080960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="219400448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tga</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$6:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9488609375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90757493749999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87095562500000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83746787499999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80643149999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.779516875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.73162068749999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6936075625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.66278581250000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.63806574999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.61858568749999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.58799887500000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.56748687499999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.54238881250000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$6:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>73.226794999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.819843000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.369783999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.313892999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.918886000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.801806999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.400279999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77.584419999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78.431151999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77.214922000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>77.029354999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>77.461856999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>77.692588000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>76.842089999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>76.874512999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DD20-4F71-8B0B-615812DE47C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>jpg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$6:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9488609375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90757493749999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87095562500000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83746787499999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80643149999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.779516875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.73162068749999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6936075625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.66278581250000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.63806574999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.61858568749999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.58799887500000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.56748687499999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.54238881250000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$6:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>63.485987999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.071605000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.587941999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.498549999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67.198774999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67.854737</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67.670128000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67.896568000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68.707449999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67.337714000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.349885</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67.815325999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>68.050415999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>67.225453999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>67.280556000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DD20-4F71-8B0B-615812DE47C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="224930336"/>
+        <c:axId val="213750400"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="224930336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="213750400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="213750400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="60"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="224930336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -11253,6 +12528,86 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -12645,6 +14000,1038 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17732,6 +20119,83 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>202405</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>207168</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>659605</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8D30F87-0045-F614-0EC8-91DC9371B0F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>159543</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>121443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>616743</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E60054A2-B5BF-1BBF-B1C7-B0410531537A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -23485,8 +25949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C2B469-AEF4-4B63-B31F-BCB37B1539E1}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -25706,10 +28170,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA1694-F670-4BE0-A01F-7368306F0412}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView topLeftCell="F11" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -26747,6 +29211,86 @@
       <c r="G52" s="3">
         <v>63.946093750000003</v>
       </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="4"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="4"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="C61" s="1"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="C62" s="1"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="C63" s="1"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="C64" s="1"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+    </row>
+    <row r="65" spans="3:5">
+      <c r="C65" s="1"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+    </row>
+    <row r="66" spans="3:5">
+      <c r="C66" s="1"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+    </row>
+    <row r="67" spans="3:5">
+      <c r="C67" s="1"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+    </row>
+    <row r="68" spans="3:5">
+      <c r="C68" s="1"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+    </row>
+    <row r="69" spans="3:5">
+      <c r="C69" s="1"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+    </row>
+    <row r="70" spans="3:5">
+      <c r="C70" s="1"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+    </row>
+    <row r="71" spans="3:5">
+      <c r="C71" s="1"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+    </row>
+    <row r="72" spans="3:5">
+      <c r="C72" s="1"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+    </row>
+    <row r="73" spans="3:5">
+      <c r="C73" s="1"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -27036,8 +29580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0506C7E9-1C4A-49B6-993E-CFFC44986C0C}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -27564,6 +30108,905 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="F24:G24"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5097DB85-A8E2-4022-9B9B-E70F8DE058B6}">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G5" activeCellId="2" sqref="C5:C20 E5:E20 G5:G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <cols>
+    <col min="1" max="1" width="8.9375" customWidth="1"/>
+    <col min="2" max="2" width="17.1875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.8125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <f>1-B6/(1000*1000*16)</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.969724457085549</v>
+      </c>
+      <c r="E6" s="3">
+        <v>73.226794999999996</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.97358256456845504</v>
+      </c>
+      <c r="G6" s="3">
+        <v>63.485987999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>818225</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" ref="C7:C11" si="0">1-B7/(1000*1000*16)</f>
+        <v>0.9488609375</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.96957708567432099</v>
+      </c>
+      <c r="E7" s="3">
+        <v>75.819843000000006</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.97343190504403398</v>
+      </c>
+      <c r="G7" s="3">
+        <v>66.071605000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>1478801</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.90757493749999996</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.96964955133943198</v>
+      </c>
+      <c r="E8" s="3">
+        <v>77.369783999999996</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.97349637224254204</v>
+      </c>
+      <c r="G8" s="3">
+        <v>67.587941999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>2064710</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.87095562500000001</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.96958349610503802</v>
+      </c>
+      <c r="E9" s="3">
+        <v>77.313892999999993</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.973455433519678</v>
+      </c>
+      <c r="G9" s="3">
+        <v>67.498549999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>2600514</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.83746787499999997</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.96959765644011797</v>
+      </c>
+      <c r="E10" s="3">
+        <v>76.918886000000001</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.97342864739244095</v>
+      </c>
+      <c r="G10" s="3">
+        <v>67.198774999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3097096</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.80643149999999997</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.96960179316823203</v>
+      </c>
+      <c r="E11" s="3">
+        <v>77.801806999999997</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.97353113163751004</v>
+      </c>
+      <c r="G11" s="3">
+        <v>67.854737</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>3527730</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" ref="C9:C12" si="1">1-B12/(1000*1000*16)</f>
+        <v>0.779516875</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.96965705117876599</v>
+      </c>
+      <c r="E12" s="3">
+        <v>77.400279999999995</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.97349623481527903</v>
+      </c>
+      <c r="G12" s="3">
+        <v>67.670128000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>4294069</v>
+      </c>
+      <c r="C13" s="1">
+        <f>1-B13/(1000*1000*16)</f>
+        <v>0.73162068749999998</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.96966614355810998</v>
+      </c>
+      <c r="E13" s="3">
+        <v>77.584419999999994</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.97349103729281194</v>
+      </c>
+      <c r="G13" s="3">
+        <v>67.896568000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>4902279</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" ref="C14:C24" si="2">1-B14/(1000*1000*16)</f>
+        <v>0.6936075625</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.96970577874773201</v>
+      </c>
+      <c r="E14" s="3">
+        <v>78.431151999999997</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.97354665957912301</v>
+      </c>
+      <c r="G14" s="3">
+        <v>68.707449999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>5395427</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="2"/>
+        <v>0.66278581250000002</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.96980931022433903</v>
+      </c>
+      <c r="E15" s="3">
+        <v>77.214922000000001</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.97370872648134299</v>
+      </c>
+      <c r="G15" s="3">
+        <v>67.337714000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>5790948</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="2"/>
+        <v>0.63806574999999999</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.96977899602059503</v>
+      </c>
+      <c r="E16" s="3">
+        <v>77.029354999999995</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.97361084881030002</v>
+      </c>
+      <c r="G16" s="3">
+        <v>67.349885</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>6102629</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="2"/>
+        <v>0.61858568749999998</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.96984840422707397</v>
+      </c>
+      <c r="E17" s="3">
+        <v>77.461856999999995</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.97366207359169499</v>
+      </c>
+      <c r="G17" s="3">
+        <v>67.815325999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>6592018</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="2"/>
+        <v>0.58799887500000003</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.96991750030076496</v>
+      </c>
+      <c r="E18" s="3">
+        <v>77.692588000000001</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.97372198382188402</v>
+      </c>
+      <c r="G18" s="3">
+        <v>68.050415999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>48</v>
+      </c>
+      <c r="B19">
+        <v>6920210</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="2"/>
+        <v>0.56748687499999995</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.96997547772514803</v>
+      </c>
+      <c r="E19" s="3">
+        <v>76.842089999999999</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.97377590029943895</v>
+      </c>
+      <c r="G19" s="3">
+        <v>67.225453999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>64</v>
+      </c>
+      <c r="B20">
+        <v>7321779</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="2"/>
+        <v>0.54238881250000004</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.97003114887085395</v>
+      </c>
+      <c r="E20" s="3">
+        <v>76.874512999999993</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.97382573224334201</v>
+      </c>
+      <c r="G20" s="3">
+        <v>67.280556000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="C21" s="1"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="C22" s="1"/>
+      <c r="D22" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="24"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="C23" s="1"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="C24" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34D6FD7-2A7F-47BC-8CBB-58BB55A4E976}">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <cols>
+    <col min="2" max="2" width="17.1875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.8125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <f>1-B6/(960*720*16)</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.98458180013982499</v>
+      </c>
+      <c r="E6" s="3">
+        <v>63.269739583333298</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.98786103473815201</v>
+      </c>
+      <c r="G6" s="3">
+        <v>49.989978298611099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>629411</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" ref="C7:C9" si="0">1-B7/(960*720*16)</f>
+        <v>0.94308711299189818</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.98473032397665206</v>
+      </c>
+      <c r="E7" s="3">
+        <v>63.074826388888802</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.98795833091970198</v>
+      </c>
+      <c r="G7" s="3">
+        <v>49.969846643518501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>1187136</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.89265625000000004</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.98452021713930205</v>
+      </c>
+      <c r="E8" s="3">
+        <v>64.003585069444398</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.98774347111498295</v>
+      </c>
+      <c r="G8" s="3">
+        <v>50.942375578703697</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>1686029</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.84754512080439814</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.98461180814372096</v>
+      </c>
+      <c r="E9" s="3">
+        <v>63.943243634259197</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.98787522308369902</v>
+      </c>
+      <c r="G9" s="3">
+        <v>50.695379050925901</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>2124346</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" ref="C10:C19" si="1">1-B10/(960*720*16)</f>
+        <v>0.80791142216435186</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.98459062796316599</v>
+      </c>
+      <c r="E10" s="3">
+        <v>64.119787326388803</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.98781013271662699</v>
+      </c>
+      <c r="G10" s="3">
+        <v>51.056997974536998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>2519910</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.77214355468749996</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.98459145271399895</v>
+      </c>
+      <c r="E11" s="3">
+        <v>64.630837673611097</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.98780153365744305</v>
+      </c>
+      <c r="G11" s="3">
+        <v>51.616426504629601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>2860984</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.741302806712963</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.98454395009492801</v>
+      </c>
+      <c r="E12" s="3">
+        <v>65.518475115740699</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.98775209470810699</v>
+      </c>
+      <c r="G12" s="3">
+        <v>52.480675636573999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>3141941</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.71589798538773142</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.98447835378542903</v>
+      </c>
+      <c r="E13" s="3">
+        <v>65.996630497685103</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.98771695611164601</v>
+      </c>
+      <c r="G13" s="3">
+        <v>52.853275462962898</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>3395852</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.69293872974537041</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.98463702830428101</v>
+      </c>
+      <c r="E14" s="3">
+        <v>65.721691261573994</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.98784538546299006</v>
+      </c>
+      <c r="G14" s="3">
+        <v>52.706934317129601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>3796911</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.65667399088541667</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.98449900801503298</v>
+      </c>
+      <c r="E15" s="3">
+        <v>66.471506076388806</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.98768829637420397</v>
+      </c>
+      <c r="G15" s="3">
+        <v>53.504524016203703</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>4117485</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.62768690321180554</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.98468512555076404</v>
+      </c>
+      <c r="E16" s="3">
+        <v>66.017255497685099</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.98784925438629001</v>
+      </c>
+      <c r="G16" s="3">
+        <v>53.164007523148101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>4535204</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="1"/>
+        <v>0.58991572627314814</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.98459785149389401</v>
+      </c>
+      <c r="E17" s="3">
+        <v>66.638310185185105</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.98774530706587305</v>
+      </c>
+      <c r="G17" s="3">
+        <v>53.839936342592502</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>4815526</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.56456832320601857</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.98448980409640097</v>
+      </c>
+      <c r="E18" s="3">
+        <v>67.884989872685097</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.98768588512262301</v>
+      </c>
+      <c r="G18" s="3">
+        <v>54.887450810185101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>4985569</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5491926179108797</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.98464062574702005</v>
+      </c>
+      <c r="E19" s="3">
+        <v>67.428744212962897</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.98777936942562605</v>
+      </c>
+      <c r="G19" s="3">
+        <v>54.670412326388799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="C20" s="1"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="C21" s="1"/>
+      <c r="D21" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="24"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="D22" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30218,7 +33661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC91EF9-5A2B-4E8B-B14F-BA82F77DFE6C}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -30630,7 +34073,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -31304,7 +34747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3FC7A4-D7CA-4D5B-AB0C-26A064F79098}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>

--- a/figures/result5.xlsx
+++ b/figures/result5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\sakakibara\monte-carlo-ray-tracer_approx\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D258F99-1382-4280-9E71-D51049FAF36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97572C2-BE34-45B1-8817-6458E00C40E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="12" activeTab="18" xr2:uid="{31F97659-7F59-47E3-B467-703D677997C4}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="12" activeTab="17" xr2:uid="{31F97659-7F59-47E3-B467-703D677997C4}"/>
   </bookViews>
   <sheets>
     <sheet name="【非IS】Sheet0" sheetId="7" r:id="rId1"/>
@@ -984,7 +984,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1047,9 +1047,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3757,7 +3754,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5465,6 +5462,569 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="224930336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$C$6:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94308711299189818</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89265625000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84754512080439814</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80791142216435186</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77214355468749996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.741302806712963</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.71589798538773142</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.69293872974537041</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.65667399088541667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.62768690321180554</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.58991572627314814</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.56456832320601857</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.5491926179108797</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$E$6:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>63.269739583333298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.074826388888802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.003585069444398</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.943243634259197</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.119787326388803</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.630837673611097</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65.518475115740699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65.996630497685103</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65.721691261573994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>66.471506076388806</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>66.017255497685099</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66.638310185185105</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67.884989872685097</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>67.428744212962897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1E03-4F6A-8CAF-54F321E85490}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$C$6:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94308711299189818</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89265625000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84754512080439814</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80791142216435186</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77214355468749996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.741302806712963</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.71589798538773142</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.69293872974537041</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.65667399088541667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.62768690321180554</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.58991572627314814</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.56456832320601857</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.5491926179108797</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$G$6:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>49.989978298611099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.969846643518501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.942375578703697</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.695379050925901</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.056997974536998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.616426504629601</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.480675636573999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.853275462962898</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52.706934317129601</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53.504524016203703</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>53.164007523148101</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>53.839936342592502</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>54.887450810185101</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>54.670412326388799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1E03-4F6A-8CAF-54F321E85490}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2064120272"/>
+        <c:axId val="2064122672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2064120272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2064122672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2064122672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2064120272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12647,6 +13207,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -15547,6 +16147,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -19702,6 +20818,47 @@
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>635793</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>164306</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>407193</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>221456</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9C42D61-86C0-3156-4B33-6751F93E6E4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -29218,12 +30375,6 @@
     <row r="57" spans="1:7">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:7">
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-    </row>
     <row r="60" spans="1:7">
       <c r="C60" s="1"/>
     </row>
@@ -30118,8 +31269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5097DB85-A8E2-4022-9B9B-E70F8DE058B6}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G5" activeCellId="2" sqref="C5:C20 E5:E20 G5:G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -30332,7 +31483,7 @@
         <v>3527730</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" ref="C9:C12" si="1">1-B12/(1000*1000*16)</f>
+        <f t="shared" ref="C12" si="1">1-B12/(1000*1000*16)</f>
         <v>0.779516875</v>
       </c>
       <c r="D12" s="2">
@@ -30380,7 +31531,7 @@
         <v>4902279</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" ref="C14:C24" si="2">1-B14/(1000*1000*16)</f>
+        <f t="shared" ref="C14:C20" si="2">1-B14/(1000*1000*16)</f>
         <v>0.6936075625</v>
       </c>
       <c r="D14" s="2">
@@ -30547,10 +31698,10 @@
     </row>
     <row r="22" spans="1:7">
       <c r="C22" s="1"/>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="26"/>
+      <c r="E22" s="25"/>
       <c r="F22" s="24" t="s">
         <v>74</v>
       </c>
@@ -30581,8 +31732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34D6FD7-2A7F-47BC-8CBB-58BB55A4E976}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" activeCellId="2" sqref="C5:C19 E5:E19 G5:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -30985,10 +32136,10 @@
     </row>
     <row r="21" spans="1:7">
       <c r="C21" s="1"/>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="26"/>
+      <c r="E21" s="25"/>
       <c r="F21" s="24" t="s">
         <v>77</v>
       </c>
@@ -31010,6 +32161,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
